--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1066358.448028345</v>
+        <v>1071850.754991126</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.477977803</v>
+        <v>7966425.477977801</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7653884.99918121</v>
+        <v>7653884.999181211</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +670,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>111.6483449719554</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>55.01435655395659</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -725,7 +727,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -820,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.03638470914571</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>254.8482018004435</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>130.3553607729761</v>
       </c>
     </row>
     <row r="6">
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>53.03638470914571</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,19 +1138,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>66.68447052885355</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>225.5103594566758</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -1309,10 +1311,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>108.1045920014104</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>106.3163368032419</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.48477843213645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1531,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1579,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,10 +1609,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>71.21176895789199</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>74.79176282397569</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
@@ -1768,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1819,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>66.03149870010071</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3243344373805</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
@@ -1862,7 +1864,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>41.29433859531078</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -1910,7 +1912,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>223.866617274486</v>
       </c>
       <c r="X19" t="n">
-        <v>115.2540412271705</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,25 +2083,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>160.7149283230281</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>11.33982052678797</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2239,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.43674363283128</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.7467681673238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>345.0489836658506</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>244.1702282673476</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>159.3149947016329</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.03149870010071</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2557,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>211.6410863876297</v>
       </c>
       <c r="X26" t="n">
-        <v>78.96958233437424</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2716,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>7.755913384878972</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>53.558706426582</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -2734,7 +2736,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.7282335459299</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>90.87233142730382</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2953,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -2962,7 +2964,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>148.2557892813355</v>
       </c>
       <c r="H31" t="n">
         <v>153.923765528121</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>108.1045920014104</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>311.0937977403715</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>347.1250740684334</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>207.6985751920914</v>
+        <v>66.03149870010103</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -3275,13 +3277,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>99.68660328817519</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>297.2964774104872</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>66.03149870010071</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>28.66649621608335</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>27.13515376789404</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -3518,10 +3520,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>316.279323387314</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3712,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>66.03149870010068</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>115.2540412271705</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -3743,7 +3745,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -3752,10 +3754,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3.516355700193881</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>64.26085326651896</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3913,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>13.86039560144239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>214.0175430895179</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -3989,7 +3991,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>274.9805923048196</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>110.4084722481794</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>164.0116202804579</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>109.8315615974292</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1205.680141491103</v>
+        <v>1039.898925960894</v>
       </c>
       <c r="C2" t="n">
-        <v>1205.680141491103</v>
+        <v>1039.898925960894</v>
       </c>
       <c r="D2" t="n">
-        <v>1205.680141491103</v>
+        <v>1039.898925960894</v>
       </c>
       <c r="E2" t="n">
-        <v>803.0966166076471</v>
+        <v>637.3154010774383</v>
       </c>
       <c r="F2" t="n">
-        <v>386.2021781376249</v>
+        <v>637.3154010774383</v>
       </c>
       <c r="G2" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H2" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I2" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J2" t="n">
         <v>206.7689006129436</v>
@@ -4352,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S2" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T2" t="n">
-        <v>2677.949313991765</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U2" t="n">
-        <v>2422.196584426364</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.626527301155</v>
+        <v>2597.336020850345</v>
       </c>
       <c r="W2" t="n">
-        <v>1995.627492269443</v>
+        <v>2226.336985818633</v>
       </c>
       <c r="X2" t="n">
-        <v>1606.1748872025</v>
+        <v>1836.88438075169</v>
       </c>
       <c r="Y2" t="n">
-        <v>1606.1748872025</v>
+        <v>1440.393671672291</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C3" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D3" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E3" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F3" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G3" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H3" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I3" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>787.6208502301403</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K3" t="n">
-        <v>787.6208502301403</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L3" t="n">
-        <v>1271.186936128453</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M3" t="n">
-        <v>1898.958585755135</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N3" t="n">
-        <v>2355.071011059905</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O3" t="n">
-        <v>2871.591293650886</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P3" t="n">
-        <v>2871.591293650886</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q3" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R3" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S3" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T3" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U3" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V3" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W3" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X3" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y3" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D4" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E4" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F4" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G4" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
         <v>62.11912770411553</v>
@@ -4510,28 +4512,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R4" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S4" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T4" t="n">
-        <v>963.5661502456679</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5661502456679</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>840.7357579845172</v>
+        <v>2535.796644191037</v>
       </c>
       <c r="C5" t="n">
-        <v>447.5602564874478</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D5" t="n">
-        <v>62.11912770411553</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E5" t="n">
-        <v>62.11912770411553</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F5" t="n">
-        <v>62.11912770411553</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G5" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H5" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I5" t="n">
         <v>62.11912770411553</v>
@@ -4589,28 +4591,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R5" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T5" t="n">
-        <v>2882.455782765193</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U5" t="n">
-        <v>2626.703053199792</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V5" t="n">
-        <v>2284.59624390331</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W5" t="n">
-        <v>2027.173817842256</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X5" t="n">
-        <v>1637.721212775313</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="Y5" t="n">
-        <v>1241.230503695914</v>
+        <v>2936.291389902433</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4646,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L6" t="n">
-        <v>865.4243596646552</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M6" t="n">
-        <v>865.4243596646552</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N6" t="n">
         <v>1458.313011372373</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C7" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D7" t="n">
-        <v>62.11912770411553</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E7" t="n">
-        <v>62.11912770411553</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F7" t="n">
-        <v>62.11912770411553</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G7" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H7" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I7" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J7" t="n">
         <v>62.11912770411553</v>
@@ -4747,28 +4749,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U7" t="n">
-        <v>115.6912334709294</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V7" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W7" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X7" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1888.001963213425</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C8" t="n">
-        <v>1494.826461716356</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="D8" t="n">
-        <v>1109.385332933023</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E8" t="n">
-        <v>706.8018080495679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F8" t="n">
-        <v>289.9073695795456</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G8" t="n">
-        <v>289.9073695795456</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H8" t="n">
         <v>62.11912770411553</v>
@@ -4835,19 +4837,19 @@
         <v>2677.949313991765</v>
       </c>
       <c r="U8" t="n">
-        <v>2677.949313991765</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V8" t="n">
-        <v>2677.949313991765</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W8" t="n">
-        <v>2677.949313991765</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X8" t="n">
-        <v>2288.496708924822</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y8" t="n">
-        <v>2288.496708924822</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4898,10 @@
         <v>1493.196009291336</v>
       </c>
       <c r="O9" t="n">
-        <v>1740.468202408463</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P9" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>854.3695926684857</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C10" t="n">
-        <v>854.3695926684857</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D10" t="n">
-        <v>698.7364795710005</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E10" t="n">
-        <v>543.177667430203</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F10" t="n">
-        <v>385.851732643176</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G10" t="n">
-        <v>217.5976787426216</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H10" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I10" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4987,25 +4989,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>854.3695926684857</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>854.3695926684857</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U10" t="n">
-        <v>854.3695926684857</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V10" t="n">
-        <v>854.3695926684857</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W10" t="n">
-        <v>854.3695926684857</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X10" t="n">
-        <v>854.3695926684857</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y10" t="n">
-        <v>854.3695926684857</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>872.1890676712071</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="C11" t="n">
-        <v>479.0135661741377</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="D11" t="n">
-        <v>479.0135661741377</v>
+        <v>1323.649611314838</v>
       </c>
       <c r="E11" t="n">
-        <v>479.0135661741377</v>
+        <v>1323.649611314838</v>
       </c>
       <c r="F11" t="n">
-        <v>62.11912770411553</v>
+        <v>906.7551728448155</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>493.5924173328187</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>169.5093668993093</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5081,10 +5083,10 @@
         <v>1709.09074009817</v>
       </c>
       <c r="X11" t="n">
-        <v>1319.638135031227</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="Y11" t="n">
-        <v>1272.683813382604</v>
+        <v>1709.09074009817</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5123,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>596.176270190801</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C13" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D13" t="n">
-        <v>62.11912770411553</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E13" t="n">
-        <v>62.11912770411553</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F13" t="n">
-        <v>62.11912770411553</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J13" t="n">
         <v>62.11912770411553</v>
@@ -5227,22 +5229,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>896.8676667102127</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U13" t="n">
-        <v>611.4288749521137</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V13" t="n">
-        <v>345.4495297729379</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W13" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X13" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y13" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>613.6190001236475</v>
+        <v>912.6668377399637</v>
       </c>
       <c r="C14" t="n">
-        <v>613.6190001236475</v>
+        <v>519.4913362428942</v>
       </c>
       <c r="D14" t="n">
-        <v>613.6190001236475</v>
+        <v>134.050207459562</v>
       </c>
       <c r="E14" t="n">
-        <v>613.6190001236475</v>
+        <v>134.050207459562</v>
       </c>
       <c r="F14" t="n">
-        <v>613.6190001236475</v>
+        <v>134.050207459562</v>
       </c>
       <c r="G14" t="n">
-        <v>200.4562446116507</v>
+        <v>134.050207459562</v>
       </c>
       <c r="H14" t="n">
-        <v>200.4562446116507</v>
+        <v>134.050207459562</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5305,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S14" t="n">
-        <v>2992.416236315565</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T14" t="n">
-        <v>2768.915633874982</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U14" t="n">
-        <v>2513.16290430958</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="V14" t="n">
-        <v>2171.056095013099</v>
+        <v>2470.103932629415</v>
       </c>
       <c r="W14" t="n">
-        <v>1800.057059981386</v>
+        <v>2099.104897597703</v>
       </c>
       <c r="X14" t="n">
-        <v>1410.604454914443</v>
+        <v>1709.652292530759</v>
       </c>
       <c r="Y14" t="n">
-        <v>1014.113745835044</v>
+        <v>1313.161583451361</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5360,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C16" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D16" t="n">
-        <v>62.11912770411553</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E16" t="n">
-        <v>62.11912770411553</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F16" t="n">
-        <v>62.11912770411553</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J16" t="n">
         <v>62.11912770411553</v>
@@ -5467,19 +5469,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U16" t="n">
-        <v>678.1273584875689</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V16" t="n">
-        <v>412.1480133083932</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W16" t="n">
-        <v>128.8176112395708</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X16" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y16" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1510.526376601847</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="C17" t="n">
-        <v>1216.259372119644</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="D17" t="n">
-        <v>1216.259372119644</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E17" t="n">
-        <v>1216.259372119644</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F17" t="n">
-        <v>799.3649336496217</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H17" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,25 +5542,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S17" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T17" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U17" t="n">
-        <v>3067.963471491298</v>
+        <v>2859.738463305772</v>
       </c>
       <c r="V17" t="n">
-        <v>3067.963471491298</v>
+        <v>2517.631654009291</v>
       </c>
       <c r="W17" t="n">
-        <v>2696.964436459586</v>
+        <v>2146.632618977578</v>
       </c>
       <c r="X17" t="n">
-        <v>2307.511831392642</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="Y17" t="n">
-        <v>1911.021122313243</v>
+        <v>1757.180013910635</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5594,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5695,22 +5697,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S19" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T19" t="n">
-        <v>727.847098413902</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="U19" t="n">
-        <v>727.847098413902</v>
+        <v>554.2263691201458</v>
       </c>
       <c r="V19" t="n">
-        <v>461.8677532347263</v>
+        <v>288.2470239409701</v>
       </c>
       <c r="W19" t="n">
-        <v>178.5373511659039</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X19" t="n">
         <v>62.11912770411553</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1919.518325348037</v>
+        <v>1243.319282867973</v>
       </c>
       <c r="C20" t="n">
-        <v>1919.518325348037</v>
+        <v>850.1437813709033</v>
       </c>
       <c r="D20" t="n">
-        <v>1757.180013910635</v>
+        <v>464.702652587571</v>
       </c>
       <c r="E20" t="n">
-        <v>1354.596489027179</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F20" t="n">
-        <v>937.702050557157</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G20" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H20" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,28 +5776,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S20" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T20" t="n">
-        <v>3105.956385205776</v>
+        <v>3056.509107322825</v>
       </c>
       <c r="U20" t="n">
-        <v>3105.956385205776</v>
+        <v>2800.756377757424</v>
       </c>
       <c r="V20" t="n">
-        <v>3105.956385205776</v>
+        <v>2800.756377757424</v>
       </c>
       <c r="W20" t="n">
-        <v>3105.956385205776</v>
+        <v>2429.757342725712</v>
       </c>
       <c r="X20" t="n">
-        <v>2716.503780138833</v>
+        <v>2040.304737658769</v>
       </c>
       <c r="Y20" t="n">
-        <v>2320.013071059434</v>
+        <v>1643.81402857937</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5831,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>691.2836731261136</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>1319.055322752795</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
-        <v>1974.833293963354</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.11912770411553</v>
+        <v>729.485828028651</v>
       </c>
       <c r="C22" t="n">
-        <v>62.11912770411553</v>
+        <v>559.2807100946402</v>
       </c>
       <c r="D22" t="n">
-        <v>62.11912770411553</v>
+        <v>403.6475969971549</v>
       </c>
       <c r="E22" t="n">
-        <v>62.11912770411553</v>
+        <v>403.6475969971549</v>
       </c>
       <c r="F22" t="n">
-        <v>62.11912770411553</v>
+        <v>246.3216622101279</v>
       </c>
       <c r="G22" t="n">
-        <v>62.11912770411553</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H22" t="n">
         <v>62.11912770411553</v>
@@ -5938,22 +5940,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>727.847098413902</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U22" t="n">
-        <v>442.408306655803</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V22" t="n">
-        <v>442.408306655803</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W22" t="n">
-        <v>442.408306655803</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X22" t="n">
-        <v>208.327984438786</v>
+        <v>729.485828028651</v>
       </c>
       <c r="Y22" t="n">
-        <v>62.11912770411553</v>
+        <v>729.485828028651</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2320.013071059434</v>
+        <v>1206.412481019843</v>
       </c>
       <c r="C23" t="n">
-        <v>1926.837569562364</v>
+        <v>813.2369795227737</v>
       </c>
       <c r="D23" t="n">
-        <v>1541.396440779032</v>
+        <v>813.2369795227737</v>
       </c>
       <c r="E23" t="n">
-        <v>1138.812915895577</v>
+        <v>410.6534546393182</v>
       </c>
       <c r="F23" t="n">
-        <v>721.9184774255544</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G23" t="n">
-        <v>308.7557219135576</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H23" t="n">
         <v>62.11912770411553</v>
@@ -6023,16 +6025,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V23" t="n">
-        <v>3105.956385205776</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="W23" t="n">
-        <v>3105.956385205776</v>
+        <v>2392.850540877582</v>
       </c>
       <c r="X23" t="n">
-        <v>2716.503780138833</v>
+        <v>2003.397935810639</v>
       </c>
       <c r="Y23" t="n">
-        <v>2320.013071059434</v>
+        <v>1606.90722673124</v>
       </c>
     </row>
     <row r="24">
@@ -6072,16 +6074,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6178,16 +6180,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U25" t="n">
-        <v>678.1273584875689</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V25" t="n">
-        <v>412.1480133083932</v>
+        <v>802.6419131733114</v>
       </c>
       <c r="W25" t="n">
-        <v>128.8176112395708</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="X25" t="n">
-        <v>128.8176112395708</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y25" t="n">
         <v>62.11912770411553</v>
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1618.8428970031</v>
+        <v>1705.739450209017</v>
       </c>
       <c r="C26" t="n">
-        <v>1618.8428970031</v>
+        <v>1312.563948711948</v>
       </c>
       <c r="D26" t="n">
-        <v>1618.8428970031</v>
+        <v>927.1228199286156</v>
       </c>
       <c r="E26" t="n">
-        <v>1216.259372119644</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="F26" t="n">
-        <v>799.3649336496217</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G26" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6248,28 +6250,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U26" t="n">
-        <v>2812.210741925897</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V26" t="n">
-        <v>2470.103932629415</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W26" t="n">
-        <v>2099.104897597703</v>
+        <v>2892.177510066756</v>
       </c>
       <c r="X26" t="n">
-        <v>2019.337642714496</v>
+        <v>2502.724904999813</v>
       </c>
       <c r="Y26" t="n">
-        <v>2019.337642714496</v>
+        <v>2106.234195920414</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C27" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D27" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E27" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F27" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G27" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H27" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I27" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.359996292367</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L27" t="n">
-        <v>1590.92608219068</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M27" t="n">
-        <v>1590.92608219068</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N27" t="n">
-        <v>1949.449642343508</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O27" t="n">
-        <v>2465.969924934489</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P27" t="n">
-        <v>2871.591293650886</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q27" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R27" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S27" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T27" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U27" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V27" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W27" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X27" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y27" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>839.6651608782449</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="C28" t="n">
-        <v>839.6651608782449</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="D28" t="n">
-        <v>831.8309049339227</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="E28" t="n">
-        <v>676.2720927931252</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F28" t="n">
-        <v>518.9461580060981</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G28" t="n">
-        <v>350.6921041055436</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H28" t="n">
-        <v>195.2135530670377</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I28" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J28" t="n">
         <v>62.11912770411553</v>
@@ -6406,28 +6408,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R28" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>839.6651608782449</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T28" t="n">
-        <v>839.6651608782449</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U28" t="n">
-        <v>839.6651608782449</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="V28" t="n">
-        <v>839.6651608782449</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="W28" t="n">
-        <v>839.6651608782449</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="X28" t="n">
-        <v>839.6651608782449</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="Y28" t="n">
-        <v>839.6651608782449</v>
+        <v>760.7500664282172</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1977.906261762953</v>
+        <v>1273.751438283103</v>
       </c>
       <c r="C29" t="n">
-        <v>1977.906261762953</v>
+        <v>880.5759367860337</v>
       </c>
       <c r="D29" t="n">
-        <v>1592.46513297962</v>
+        <v>880.5759367860337</v>
       </c>
       <c r="E29" t="n">
-        <v>1189.881608096165</v>
+        <v>477.9924119025782</v>
       </c>
       <c r="F29" t="n">
-        <v>772.9871696261426</v>
+        <v>477.9924119025782</v>
       </c>
       <c r="G29" t="n">
-        <v>359.8244141141458</v>
+        <v>477.9924119025782</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411553</v>
+        <v>153.9093614690689</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J29" t="n">
         <v>206.7689006129436</v>
@@ -6488,25 +6490,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T29" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U29" t="n">
-        <v>3105.956385205776</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V29" t="n">
-        <v>2763.849575909295</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="W29" t="n">
-        <v>2763.849575909295</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="X29" t="n">
-        <v>2374.396970842351</v>
+        <v>2070.736893073899</v>
       </c>
       <c r="Y29" t="n">
-        <v>1977.906261762953</v>
+        <v>1674.2461839945</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C30" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D30" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E30" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F30" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G30" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H30" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I30" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>822.3203958792419</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L30" t="n">
-        <v>1305.886481777555</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M30" t="n">
-        <v>1933.658131404236</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N30" t="n">
-        <v>2589.436102614795</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O30" t="n">
-        <v>3105.956385205776</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P30" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q30" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R30" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S30" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T30" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U30" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V30" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W30" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X30" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y30" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>854.3695926684857</v>
+        <v>680.2357481768456</v>
       </c>
       <c r="C31" t="n">
-        <v>854.3695926684857</v>
+        <v>680.2357481768456</v>
       </c>
       <c r="D31" t="n">
-        <v>698.7364795710005</v>
+        <v>680.2357481768456</v>
       </c>
       <c r="E31" t="n">
-        <v>543.177667430203</v>
+        <v>524.6769360360481</v>
       </c>
       <c r="F31" t="n">
-        <v>385.851732643176</v>
+        <v>367.3510012490211</v>
       </c>
       <c r="G31" t="n">
         <v>217.5976787426216</v>
@@ -6643,28 +6645,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>854.3695926684857</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>854.3695926684857</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>854.3695926684857</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U31" t="n">
-        <v>854.3695926684857</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V31" t="n">
-        <v>854.3695926684857</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W31" t="n">
-        <v>854.3695926684857</v>
+        <v>680.2357481768456</v>
       </c>
       <c r="X31" t="n">
-        <v>854.3695926684857</v>
+        <v>680.2357481768456</v>
       </c>
       <c r="Y31" t="n">
-        <v>854.3695926684857</v>
+        <v>680.2357481768456</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1729.45838718197</v>
+        <v>1206.412481019843</v>
       </c>
       <c r="C32" t="n">
-        <v>1729.45838718197</v>
+        <v>1206.412481019843</v>
       </c>
       <c r="D32" t="n">
-        <v>1344.017258398638</v>
+        <v>1206.412481019843</v>
       </c>
       <c r="E32" t="n">
-        <v>941.4337335151823</v>
+        <v>1206.412481019843</v>
       </c>
       <c r="F32" t="n">
-        <v>524.5392950451601</v>
+        <v>789.518042549821</v>
       </c>
       <c r="G32" t="n">
-        <v>524.5392950451601</v>
+        <v>376.3552870378241</v>
       </c>
       <c r="H32" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J32" t="n">
         <v>206.7689006129436</v>
@@ -6722,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T32" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U32" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V32" t="n">
-        <v>2080.089775129883</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="W32" t="n">
-        <v>1729.45838718197</v>
+        <v>2392.850540877582</v>
       </c>
       <c r="X32" t="n">
-        <v>1729.45838718197</v>
+        <v>2003.397935810639</v>
       </c>
       <c r="Y32" t="n">
-        <v>1729.45838718197</v>
+        <v>1606.90722673124</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C33" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D33" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E33" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F33" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G33" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H33" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L33" t="n">
-        <v>1271.186936128453</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M33" t="n">
-        <v>1898.958585755135</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N33" t="n">
-        <v>2554.736556965694</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O33" t="n">
-        <v>3071.256839556675</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P33" t="n">
-        <v>3071.256839556675</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q33" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R33" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S33" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T33" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U33" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V33" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W33" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X33" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y33" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="34">
@@ -6889,19 +6891,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U34" t="n">
-        <v>3105.956385205776</v>
+        <v>2820.517593447677</v>
       </c>
       <c r="V34" t="n">
-        <v>3105.956385205776</v>
+        <v>2554.538248268502</v>
       </c>
       <c r="W34" t="n">
-        <v>2822.625983136954</v>
+        <v>2271.207846199679</v>
       </c>
       <c r="X34" t="n">
-        <v>2612.829442538882</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="Y34" t="n">
-        <v>2389.717381355525</v>
+        <v>2204.509362664224</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1344.012821542897</v>
+        <v>2284.59624390331</v>
       </c>
       <c r="C35" t="n">
-        <v>950.8373200458277</v>
+        <v>1891.42074240624</v>
       </c>
       <c r="D35" t="n">
-        <v>565.3961912624954</v>
+        <v>1505.979613622908</v>
       </c>
       <c r="E35" t="n">
-        <v>162.81266637904</v>
+        <v>1103.396088739452</v>
       </c>
       <c r="F35" t="n">
-        <v>62.11912770411553</v>
+        <v>686.5016502694301</v>
       </c>
       <c r="G35" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6953,34 +6955,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T35" t="n">
-        <v>2901.449916432349</v>
+        <v>2882.455782765192</v>
       </c>
       <c r="U35" t="n">
-        <v>2901.449916432349</v>
+        <v>2626.703053199791</v>
       </c>
       <c r="V35" t="n">
-        <v>2901.449916432349</v>
+        <v>2284.59624390331</v>
       </c>
       <c r="W35" t="n">
-        <v>2530.450881400636</v>
+        <v>2284.59624390331</v>
       </c>
       <c r="X35" t="n">
-        <v>2140.998276333693</v>
+        <v>2284.59624390331</v>
       </c>
       <c r="Y35" t="n">
-        <v>1744.507567254294</v>
+        <v>2284.59624390331</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>128.8176112395708</v>
+        <v>2870.23733337401</v>
       </c>
       <c r="C37" t="n">
-        <v>128.8176112395708</v>
+        <v>2870.23733337401</v>
       </c>
       <c r="D37" t="n">
-        <v>128.8176112395708</v>
+        <v>2714.604220276525</v>
       </c>
       <c r="E37" t="n">
-        <v>128.8176112395708</v>
+        <v>2559.045408135727</v>
       </c>
       <c r="F37" t="n">
-        <v>128.8176112395708</v>
+        <v>2401.7194733487</v>
       </c>
       <c r="G37" t="n">
-        <v>62.11912770411553</v>
+        <v>2233.465419448146</v>
       </c>
       <c r="H37" t="n">
-        <v>62.11912770411553</v>
+        <v>2233.465419448146</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774165</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059146</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T37" t="n">
-        <v>963.5661502456679</v>
+        <v>2870.23733337401</v>
       </c>
       <c r="U37" t="n">
-        <v>678.1273584875689</v>
+        <v>2870.23733337401</v>
       </c>
       <c r="V37" t="n">
-        <v>412.1480133083932</v>
+        <v>2870.23733337401</v>
       </c>
       <c r="W37" t="n">
-        <v>128.8176112395708</v>
+        <v>2870.23733337401</v>
       </c>
       <c r="X37" t="n">
-        <v>128.8176112395708</v>
+        <v>2870.23733337401</v>
       </c>
       <c r="Y37" t="n">
-        <v>128.8176112395708</v>
+        <v>2870.23733337401</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1382.005735257375</v>
+        <v>2392.850540877582</v>
       </c>
       <c r="C38" t="n">
-        <v>1382.005735257375</v>
+        <v>1999.675039380512</v>
       </c>
       <c r="D38" t="n">
-        <v>1382.005735257375</v>
+        <v>1614.23391059718</v>
       </c>
       <c r="E38" t="n">
-        <v>1354.596489027179</v>
+        <v>1211.650385713725</v>
       </c>
       <c r="F38" t="n">
-        <v>937.702050557157</v>
+        <v>794.7559472437023</v>
       </c>
       <c r="G38" t="n">
-        <v>524.5392950451601</v>
+        <v>381.5931917317054</v>
       </c>
       <c r="H38" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129441</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404059</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M38" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7199,25 +7201,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T38" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U38" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V38" t="n">
-        <v>2939.442830146827</v>
+        <v>2763.849575909294</v>
       </c>
       <c r="W38" t="n">
-        <v>2568.443795115114</v>
+        <v>2392.850540877582</v>
       </c>
       <c r="X38" t="n">
-        <v>2178.991190048171</v>
+        <v>2392.850540877582</v>
       </c>
       <c r="Y38" t="n">
-        <v>1782.500480968772</v>
+        <v>2392.850540877582</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C39" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D39" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.359996292367</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.359996292367</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M39" t="n">
-        <v>1528.036762687839</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N39" t="n">
-        <v>2183.814733898398</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O39" t="n">
-        <v>2700.335016489379</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R39" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S39" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T39" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U39" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V39" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W39" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X39" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y39" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K40" t="n">
         <v>143.9541688140574</v>
@@ -7360,22 +7362,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>896.8676667102127</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U40" t="n">
-        <v>611.4288749521137</v>
+        <v>611.4288749521136</v>
       </c>
       <c r="V40" t="n">
         <v>345.4495297729379</v>
       </c>
       <c r="W40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1598.855642988172</v>
+        <v>1663.765595782635</v>
       </c>
       <c r="C41" t="n">
-        <v>1205.680141491103</v>
+        <v>1270.590094285566</v>
       </c>
       <c r="D41" t="n">
-        <v>1205.680141491103</v>
+        <v>885.1489655022335</v>
       </c>
       <c r="E41" t="n">
-        <v>803.0966166076471</v>
+        <v>482.565440618778</v>
       </c>
       <c r="F41" t="n">
-        <v>386.2021781376249</v>
+        <v>65.6710021487558</v>
       </c>
       <c r="G41" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7427,7 +7429,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q41" t="n">
         <v>3105.956385205776</v>
@@ -7439,22 +7441,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>3041.046432411313</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>2785.293702845911</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="V41" t="n">
-        <v>2785.293702845911</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="W41" t="n">
-        <v>2785.293702845911</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="X41" t="n">
-        <v>2395.841097778968</v>
+        <v>2460.751050573431</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.350388699569</v>
+        <v>2064.260341494032</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H43" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I43" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
@@ -7594,25 +7596,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>525.0310145964513</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U43" t="n">
-        <v>239.5922228383523</v>
+        <v>747.3868137916095</v>
       </c>
       <c r="V43" t="n">
-        <v>239.5922228383523</v>
+        <v>481.4074686124337</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5922228383523</v>
+        <v>481.4074686124337</v>
       </c>
       <c r="X43" t="n">
-        <v>239.5922228383523</v>
+        <v>247.3271463954168</v>
       </c>
       <c r="Y43" t="n">
-        <v>239.5922228383523</v>
+        <v>247.3271463954168</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1680.200975352922</v>
+        <v>1937.971895383267</v>
       </c>
       <c r="C44" t="n">
-        <v>1680.200975352922</v>
+        <v>1544.796393886198</v>
       </c>
       <c r="D44" t="n">
-        <v>1294.75984656959</v>
+        <v>1159.355265102866</v>
       </c>
       <c r="E44" t="n">
-        <v>892.1763216861347</v>
+        <v>756.77174021941</v>
       </c>
       <c r="F44" t="n">
-        <v>475.2818832161124</v>
+        <v>339.8773017493878</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7655,7 +7657,7 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403514</v>
       </c>
       <c r="N44" t="n">
         <v>2132.883732040977</v>
@@ -7664,34 +7666,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q44" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>2956.439762149703</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2732.939159709119</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2477.186430143718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V44" t="n">
-        <v>2477.186430143718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W44" t="n">
-        <v>2477.186430143718</v>
+        <v>2734.957350174063</v>
       </c>
       <c r="X44" t="n">
-        <v>2477.186430143718</v>
+        <v>2734.957350174063</v>
       </c>
       <c r="Y44" t="n">
-        <v>2080.695721064319</v>
+        <v>2338.466641094664</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N45" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>543.5161708764091</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C46" t="n">
-        <v>373.3110529423983</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D46" t="n">
-        <v>217.677939844913</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K46" t="n">
         <v>143.9541688140574</v>
@@ -7828,28 +7830,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>839.6651608782449</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U46" t="n">
-        <v>839.6651608782449</v>
+        <v>562.1787951003082</v>
       </c>
       <c r="V46" t="n">
-        <v>839.6651608782449</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="W46" t="n">
-        <v>839.6651608782449</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X46" t="n">
-        <v>728.7241895677104</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.7241895677104</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
   </sheetData>
@@ -7994,7 +7996,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,10 +8057,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
@@ -8067,7 +8069,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>546.0917343741364</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8234,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,19 +8294,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>400.7288157213065</v>
       </c>
       <c r="M6" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>684.2495388215582</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8544,13 +8546,13 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8708,7 +8710,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8769,25 +8771,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>192.2856137303845</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>647.2923877624991</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,16 +9008,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M15" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,16 +9251,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>569.9919810238538</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>326.5064297756122</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9477,13 +9479,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>288.3536975034276</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
@@ -9492,10 +9494,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9720,7 +9722,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
@@ -9732,7 +9734,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9954,16 +9956,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095479</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10191,13 +10193,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
@@ -10206,7 +10208,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10437,16 +10439,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>126.0381992661178</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10665,7 +10667,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10680,7 +10682,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10902,13 +10904,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>517.3131487114052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
@@ -10917,7 +10919,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11139,25 +11141,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>306.543171528089</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11312,7 +11314,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
         <v>331.2113854294513</v>
@@ -11379,10 +11381,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
@@ -11391,10 +11393,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22556,16 +22558,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>297.3827829849214</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>283.6713846495602</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182383</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22790,19 +22792,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>112.4408428809519</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>262.1704412156288</v>
       </c>
     </row>
     <row r="6">
@@ -22945,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -23024,19 +23026,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>314.9022469666454</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>95.33186047249845</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23075,19 +23077,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23182,7 +23184,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23197,10 +23199,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23227,7 +23229,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>92.68333097786568</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>30.63740893521796</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>346.0410235564684</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23419,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23467,16 +23469,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23495,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -23507,13 +23509,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.74197678056782</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>90.05665668438425</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>165.708020294746</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>97.91941204471817</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>211.9008636744366</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>56.63048077364817</v>
       </c>
       <c r="X19" t="n">
-        <v>116.4854777676763</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>220.8717891724708</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>209.9257758893895</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24127,22 +24129,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>138.1347697287176</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24178,10 +24180,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>76.13417240419926</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>67.67651041947136</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>76.67199166182661</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24263,10 +24265,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24418,19 +24420,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>104.0045570257511</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>154.8494418714224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>164.8484195083599</v>
@@ -24497,19 +24499,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>155.6479582937658</v>
       </c>
       <c r="X26" t="n">
-        <v>306.5884966818995</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24604,10 +24606,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>146.3208685816314</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>100.4445175928075</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24622,7 +24624,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>233.3618613134482</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>26.11398638324431</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>46.081414311156</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,16 +24730,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -24841,7 +24843,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>18.31572408021341</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>14.55738747233836</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
         <v>200.7879229792761</v>
@@ -24898,7 +24900,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>9.748422188802749</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>20.16397061296198</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
@@ -25129,19 +25131,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.04094380275529</v>
+        <v>165.7080202947457</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25163,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>313.0388907971468</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>111.7346505463897</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25315,22 +25317,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>100.5400146614482</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>103.0969848932095</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -25363,16 +25365,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4225358667268</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>4.562896541860255</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
         <v>221.2655964161775</v>
@@ -25448,16 +25450,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25600,10 +25602,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>167.3303626133475</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>405.514772256683</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25679,7 +25681,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>157.0047431496585</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -25801,13 +25803,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0633699266785</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>68.56686075100021</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>134.0505356520572</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25910,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>54.43994726018055</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>118.5727835600602</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>121.9079573974175</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>661921.9605185037</v>
+        <v>661921.9605185034</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>661921.9605185034</v>
+        <v>661921.9605185037</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>661921.9605185037</v>
+        <v>661921.9605185034</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>661921.9605185037</v>
+        <v>661921.9605185034</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>661921.9605185036</v>
+        <v>661921.9605185034</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>661921.9605185033</v>
+        <v>661921.9605185034</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>661921.9605185034</v>
+        <v>661921.9605185036</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>661921.9605185034</v>
+        <v>661921.9605185037</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>661921.9605185036</v>
+        <v>661921.9605185034</v>
       </c>
     </row>
     <row r="15">
@@ -26320,40 +26322,40 @@
         <v>254445.3498136761</v>
       </c>
       <c r="E2" t="n">
-        <v>254445.349813676</v>
+        <v>254445.3498136762</v>
       </c>
       <c r="F2" t="n">
         <v>254445.3498136761</v>
       </c>
       <c r="G2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.349813676</v>
       </c>
       <c r="H2" t="n">
         <v>254445.3498136761</v>
       </c>
       <c r="I2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.3498136762</v>
       </c>
       <c r="J2" t="n">
         <v>254445.349813676</v>
       </c>
       <c r="K2" t="n">
-        <v>254445.3498136762</v>
+        <v>254445.349813676</v>
       </c>
       <c r="L2" t="n">
         <v>254445.3498136762</v>
       </c>
       <c r="M2" t="n">
-        <v>254445.349813676</v>
+        <v>254445.3498136761</v>
       </c>
       <c r="N2" t="n">
         <v>254445.3498136761</v>
       </c>
       <c r="O2" t="n">
-        <v>254445.349813676</v>
+        <v>254445.3498136761</v>
       </c>
       <c r="P2" t="n">
-        <v>254445.3498136762</v>
+        <v>254445.3498136761</v>
       </c>
     </row>
     <row r="3">
@@ -26445,7 +26447,7 @@
         <v>26357.40659176976</v>
       </c>
       <c r="L4" t="n">
-        <v>26357.40659176977</v>
+        <v>26357.40659176976</v>
       </c>
       <c r="M4" t="n">
         <v>26357.40659176976</v>
@@ -26500,16 +26502,16 @@
         <v>47210.5370551278</v>
       </c>
       <c r="M5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="N5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="O5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="P5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-112969.5492530503</v>
       </c>
       <c r="C6" t="n">
-        <v>147249.8061667785</v>
+        <v>147249.8061667786</v>
       </c>
       <c r="D6" t="n">
-        <v>147249.8061667785</v>
+        <v>147249.8061667786</v>
       </c>
       <c r="E6" t="n">
-        <v>180877.4061667785</v>
+        <v>180877.4061667786</v>
       </c>
       <c r="F6" t="n">
         <v>180877.4061667786</v>
       </c>
       <c r="G6" t="n">
+        <v>180877.4061667785</v>
+      </c>
+      <c r="H6" t="n">
+        <v>180877.4061667785</v>
+      </c>
+      <c r="I6" t="n">
         <v>180877.4061667786</v>
-      </c>
-      <c r="H6" t="n">
-        <v>180877.4061667786</v>
-      </c>
-      <c r="I6" t="n">
-        <v>180877.4061667785</v>
       </c>
       <c r="J6" t="n">
         <v>-22286.30694591655</v>
       </c>
       <c r="K6" t="n">
-        <v>180877.4061667787</v>
+        <v>180877.4061667785</v>
       </c>
       <c r="L6" t="n">
         <v>180877.4061667786</v>
       </c>
       <c r="M6" t="n">
-        <v>180877.4061667785</v>
+        <v>180877.4061667786</v>
       </c>
       <c r="N6" t="n">
         <v>180877.4061667786</v>
       </c>
       <c r="O6" t="n">
-        <v>180877.4061667784</v>
+        <v>180877.4061667786</v>
       </c>
       <c r="P6" t="n">
-        <v>180877.4061667786</v>
+        <v>180877.4061667785</v>
       </c>
     </row>
   </sheetData>
@@ -26820,16 +26822,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -34714,7 +34716,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
@@ -34787,7 +34789,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>460.7196215199698</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34954,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>310.6684688643883</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>598.8774259673916</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35264,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35428,7 +35430,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2252668734663</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>554.9052657131872</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M15" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35746,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,16 +35971,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>484.6198681696871</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>198.2933506465093</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
@@ -36212,10 +36214,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
@@ -36452,7 +36454,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553813</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>35.05004611020369</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
@@ -36926,7 +36928,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37157,16 +37159,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.0500461102038</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>35.05004611020361</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
@@ -37400,7 +37402,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>424.9260266620934</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
@@ -37637,7 +37639,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>216.4828246711708</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38032,7 +38034,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
         <v>186.7126870110591</v>
@@ -38099,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
@@ -38111,10 +38113,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1071850.754991126</v>
+        <v>1067316.931821628</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.477977801</v>
+        <v>7966425.477977804</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7653884.999181211</v>
+        <v>7653884.999181213</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>111.6483449719554</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0.2098309568285094</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>64.17257628986184</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.03638470914571</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -916,7 +916,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>238.5092312154278</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>130.3553607729761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>68.47192901442591</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -1074,10 +1074,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>66.68447052885355</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>123.4033930769871</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
@@ -1390,7 +1390,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>106.3163368032419</v>
+        <v>72.71741017948585</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>144.7467681673238</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>71.21176895789199</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>160.7149283230283</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>266.1249300680513</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -1861,10 +1861,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>41.29433859531078</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -1912,7 +1912,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>223.866617274486</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>11.33982052678797</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>229.2671475085639</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>28.43674363283128</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>345.0489836658506</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>229.2671475085636</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>159.3149947016329</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>211.6410863876297</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>21.69931700107992</v>
       </c>
     </row>
     <row r="27">
@@ -2721,22 +2721,22 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>53.558706426582</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>237.1220276434753</v>
       </c>
       <c r="I29" t="n">
-        <v>90.87233142730382</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>221.2655964161775</v>
@@ -2851,10 +2851,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>148.2557892813355</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
@@ -3046,10 +3046,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>311.0937977403715</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>157.0292608572034</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>194.6921370124977</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -3252,7 +3252,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>66.03149870010103</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -3280,10 +3280,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>297.2964774104872</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>54.8738889051435</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.5715133615489</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>28.66649621608335</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>162.7795370659358</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
@@ -3517,10 +3517,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>219.0985733926082</v>
       </c>
       <c r="H38" t="n">
-        <v>316.279323387314</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>115.2540412271705</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>178.0255299935642</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.516355700193881</v>
+        <v>307.4359990885172</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>214.0175430895179</v>
+        <v>147.8279795613425</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>274.9805923048196</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>287.0785698144272</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>164.0116202804579</v>
+        <v>147.8279795613425</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1039.898925960894</v>
+        <v>1798.55083824553</v>
       </c>
       <c r="C2" t="n">
-        <v>1039.898925960894</v>
+        <v>1405.375336748461</v>
       </c>
       <c r="D2" t="n">
-        <v>1039.898925960894</v>
+        <v>1019.934207965129</v>
       </c>
       <c r="E2" t="n">
-        <v>637.3154010774383</v>
+        <v>617.350683081673</v>
       </c>
       <c r="F2" t="n">
-        <v>637.3154010774383</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="G2" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H2" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I2" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
         <v>206.7689006129436</v>
@@ -4354,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S2" t="n">
-        <v>2939.442830146827</v>
+        <v>3067.751521029855</v>
       </c>
       <c r="T2" t="n">
-        <v>2939.442830146827</v>
+        <v>2844.250918589272</v>
       </c>
       <c r="U2" t="n">
-        <v>2939.442830146827</v>
+        <v>2588.498189023871</v>
       </c>
       <c r="V2" t="n">
-        <v>2597.336020850345</v>
+        <v>2588.498189023871</v>
       </c>
       <c r="W2" t="n">
-        <v>2226.336985818633</v>
+        <v>2588.498189023871</v>
       </c>
       <c r="X2" t="n">
-        <v>1836.88438075169</v>
+        <v>2199.045583956927</v>
       </c>
       <c r="Y2" t="n">
-        <v>1440.393671672291</v>
+        <v>2199.045583956927</v>
       </c>
     </row>
     <row r="3">
@@ -4418,7 +4418,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M3" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N3" t="n">
         <v>1629.56928853388</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.11912770411553</v>
+        <v>778.3581315543667</v>
       </c>
       <c r="C4" t="n">
-        <v>62.11912770411553</v>
+        <v>608.1530136203559</v>
       </c>
       <c r="D4" t="n">
-        <v>62.11912770411553</v>
+        <v>452.5199005228706</v>
       </c>
       <c r="E4" t="n">
-        <v>62.11912770411553</v>
+        <v>452.5199005228706</v>
       </c>
       <c r="F4" t="n">
-        <v>62.11912770411553</v>
+        <v>295.1939657358436</v>
       </c>
       <c r="G4" t="n">
-        <v>62.11912770411553</v>
+        <v>126.9399118352891</v>
       </c>
       <c r="H4" t="n">
         <v>62.11912770411553</v>
@@ -4512,28 +4512,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R4" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S4" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U4" t="n">
-        <v>115.6912334709294</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V4" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W4" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X4" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y4" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2535.796644191037</v>
+        <v>2004.284025786432</v>
       </c>
       <c r="C5" t="n">
-        <v>2142.621142693967</v>
+        <v>2004.284025786432</v>
       </c>
       <c r="D5" t="n">
-        <v>1757.180013910635</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E5" t="n">
-        <v>1354.596489027179</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F5" t="n">
-        <v>937.702050557157</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G5" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H5" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I5" t="n">
         <v>62.11912770411553</v>
@@ -4594,25 +4594,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U5" t="n">
-        <v>3067.963471491298</v>
+        <v>2645.697186866948</v>
       </c>
       <c r="V5" t="n">
-        <v>3067.963471491298</v>
+        <v>2645.697186866948</v>
       </c>
       <c r="W5" t="n">
-        <v>3067.963471491298</v>
+        <v>2404.778771497829</v>
       </c>
       <c r="X5" t="n">
-        <v>3067.963471491298</v>
+        <v>2404.778771497829</v>
       </c>
       <c r="Y5" t="n">
-        <v>2936.291389902433</v>
+        <v>2404.778771497829</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K6" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L6" t="n">
-        <v>802.5350401618138</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M6" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N6" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O6" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P6" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>963.5661502456679</v>
+        <v>385.851732643176</v>
       </c>
       <c r="C7" t="n">
-        <v>963.5661502456679</v>
+        <v>385.851732643176</v>
       </c>
       <c r="D7" t="n">
-        <v>862.2091751078208</v>
+        <v>385.851732643176</v>
       </c>
       <c r="E7" t="n">
-        <v>706.6503629670233</v>
+        <v>385.851732643176</v>
       </c>
       <c r="F7" t="n">
-        <v>549.3244281799962</v>
+        <v>385.851732643176</v>
       </c>
       <c r="G7" t="n">
-        <v>381.0703742794417</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H7" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J7" t="n">
         <v>62.11912770411553</v>
@@ -4758,19 +4758,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U7" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V7" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="W7" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="X7" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="Y7" t="n">
-        <v>963.5661502456679</v>
+        <v>455.0152973042123</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>522.652680240431</v>
+        <v>1459.259127009208</v>
       </c>
       <c r="C8" t="n">
-        <v>129.4771787433615</v>
+        <v>1066.083625512139</v>
       </c>
       <c r="D8" t="n">
-        <v>62.11912770411553</v>
+        <v>1066.083625512139</v>
       </c>
       <c r="E8" t="n">
-        <v>62.11912770411553</v>
+        <v>1066.083625512139</v>
       </c>
       <c r="F8" t="n">
-        <v>62.11912770411553</v>
+        <v>649.1891870421167</v>
       </c>
       <c r="G8" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H8" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I8" t="n">
         <v>62.11912770411553</v>
@@ -4834,22 +4834,22 @@
         <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>2677.949313991765</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U8" t="n">
-        <v>2422.196584426364</v>
+        <v>2645.697186866948</v>
       </c>
       <c r="V8" t="n">
-        <v>2080.089775129883</v>
+        <v>2645.697186866948</v>
       </c>
       <c r="W8" t="n">
-        <v>1709.09074009817</v>
+        <v>2645.697186866948</v>
       </c>
       <c r="X8" t="n">
-        <v>1319.638135031227</v>
+        <v>2256.244581800004</v>
       </c>
       <c r="Y8" t="n">
-        <v>923.1474259518279</v>
+        <v>1859.753872720605</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M9" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N9" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O9" t="n">
-        <v>2009.716291882317</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4995,19 +4995,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V10" t="n">
-        <v>963.5661502456679</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W10" t="n">
-        <v>963.5661502456679</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1709.09074009817</v>
+        <v>2085.470327974397</v>
       </c>
       <c r="C11" t="n">
-        <v>1709.09074009817</v>
+        <v>1692.294826477328</v>
       </c>
       <c r="D11" t="n">
-        <v>1323.649611314838</v>
+        <v>1692.294826477328</v>
       </c>
       <c r="E11" t="n">
-        <v>1323.649611314838</v>
+        <v>1289.711301593872</v>
       </c>
       <c r="F11" t="n">
-        <v>906.7551728448155</v>
+        <v>872.8168631238499</v>
       </c>
       <c r="G11" t="n">
-        <v>493.5924173328187</v>
+        <v>459.654107611853</v>
       </c>
       <c r="H11" t="n">
-        <v>169.5093668993093</v>
+        <v>135.5710571783437</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5065,28 +5065,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2677.949313991765</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U11" t="n">
-        <v>2422.196584426364</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V11" t="n">
-        <v>2080.089775129883</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="W11" t="n">
-        <v>1709.09074009817</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="X11" t="n">
-        <v>1709.09074009817</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="Y11" t="n">
-        <v>1709.09074009817</v>
+        <v>2485.965073685794</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
         <v>62.11912770411553</v>
@@ -5229,22 +5229,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U13" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V13" t="n">
-        <v>963.5661502456679</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="W13" t="n">
-        <v>963.5661502456679</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>912.6668377399637</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="C14" t="n">
-        <v>519.4913362428942</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="D14" t="n">
-        <v>134.050207459562</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E14" t="n">
-        <v>134.050207459562</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F14" t="n">
-        <v>134.050207459562</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G14" t="n">
-        <v>134.050207459562</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H14" t="n">
-        <v>134.050207459562</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5302,28 +5302,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2812.210741925897</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2470.103932629415</v>
+        <v>2943.618073768374</v>
       </c>
       <c r="W14" t="n">
-        <v>2099.104897597703</v>
+        <v>2943.618073768374</v>
       </c>
       <c r="X14" t="n">
-        <v>1709.652292530759</v>
+        <v>2554.165468701431</v>
       </c>
       <c r="Y14" t="n">
-        <v>1313.161583451361</v>
+        <v>2157.674759622032</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
         <v>62.11912770411553</v>
@@ -5466,22 +5466,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U16" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V16" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1757.180013910635</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="C17" t="n">
-        <v>1757.180013910635</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.180013910635</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E17" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F17" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G17" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H17" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5539,28 +5539,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T17" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U17" t="n">
-        <v>2859.738463305772</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V17" t="n">
-        <v>2517.631654009291</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W17" t="n">
-        <v>2146.632618977578</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="X17" t="n">
-        <v>1757.180013910635</v>
+        <v>2345.50474510712</v>
       </c>
       <c r="Y17" t="n">
-        <v>1757.180013910635</v>
+        <v>1949.014036027722</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.973980501895</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="C19" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="D19" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="E19" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="F19" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="G19" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="H19" t="n">
         <v>62.11912770411553</v>
@@ -5697,28 +5697,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U19" t="n">
-        <v>554.2263691201458</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V19" t="n">
-        <v>288.2470239409701</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W19" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X19" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1243.319282867973</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C20" t="n">
-        <v>850.1437813709033</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D20" t="n">
-        <v>464.702652587571</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E20" t="n">
-        <v>62.11912770411553</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F20" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G20" t="n">
         <v>62.11912770411553</v>
@@ -5752,19 +5752,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5776,28 +5776,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T20" t="n">
-        <v>3056.509107322825</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U20" t="n">
-        <v>2800.756377757424</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="V20" t="n">
-        <v>2800.756377757424</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="W20" t="n">
-        <v>2429.757342725712</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="X20" t="n">
-        <v>2040.304737658769</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y20" t="n">
-        <v>1643.81402857937</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="21">
@@ -5843,13 +5843,13 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>729.485828028651</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="C22" t="n">
-        <v>559.2807100946402</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="D22" t="n">
-        <v>403.6475969971549</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="E22" t="n">
-        <v>403.6475969971549</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="F22" t="n">
-        <v>246.3216622101279</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="G22" t="n">
-        <v>217.5976787426216</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="H22" t="n">
         <v>62.11912770411553</v>
@@ -5943,19 +5943,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U22" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V22" t="n">
-        <v>963.5661502456679</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W22" t="n">
-        <v>963.5661502456679</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X22" t="n">
-        <v>729.485828028651</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y22" t="n">
-        <v>729.485828028651</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1206.412481019843</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C23" t="n">
-        <v>813.2369795227737</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D23" t="n">
-        <v>813.2369795227737</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="E23" t="n">
-        <v>410.6534546393182</v>
+        <v>1123.759298967512</v>
       </c>
       <c r="F23" t="n">
-        <v>62.11912770411553</v>
+        <v>706.8648604974898</v>
       </c>
       <c r="G23" t="n">
-        <v>62.11912770411553</v>
+        <v>293.7021049854929</v>
       </c>
       <c r="H23" t="n">
         <v>62.11912770411553</v>
@@ -5989,19 +5989,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129443</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6025,16 +6025,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V23" t="n">
-        <v>2763.849575909295</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W23" t="n">
-        <v>2392.850540877582</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X23" t="n">
-        <v>2003.397935810639</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y23" t="n">
-        <v>1606.90722673124</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6177,19 +6177,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U25" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V25" t="n">
-        <v>802.6419131733114</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W25" t="n">
-        <v>519.3115111044891</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>285.2311888874722</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
         <v>62.11912770411553</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1705.739450209017</v>
+        <v>1725.726704223945</v>
       </c>
       <c r="C26" t="n">
-        <v>1312.563948711948</v>
+        <v>1725.726704223945</v>
       </c>
       <c r="D26" t="n">
-        <v>927.1228199286156</v>
+        <v>1340.285575440613</v>
       </c>
       <c r="E26" t="n">
-        <v>524.5392950451601</v>
+        <v>937.702050557157</v>
       </c>
       <c r="F26" t="n">
-        <v>524.5392950451601</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G26" t="n">
         <v>524.5392950451601</v>
@@ -6226,19 +6226,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K26" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L26" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M26" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N26" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O26" t="n">
         <v>2572.923332933306</v>
@@ -6259,19 +6259,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U26" t="n">
-        <v>3105.956385205776</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="V26" t="n">
-        <v>3105.956385205776</v>
+        <v>2508.096846343894</v>
       </c>
       <c r="W26" t="n">
-        <v>2892.177510066756</v>
+        <v>2137.097811312181</v>
       </c>
       <c r="X26" t="n">
-        <v>2502.724904999813</v>
+        <v>1747.645206245238</v>
       </c>
       <c r="Y26" t="n">
-        <v>2106.234195920414</v>
+        <v>1725.726704223945</v>
       </c>
     </row>
     <row r="27">
@@ -6314,16 +6314,16 @@
         <v>545.6852136024288</v>
       </c>
       <c r="M27" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>760.7500664282172</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="C28" t="n">
-        <v>760.7500664282172</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="D28" t="n">
-        <v>760.7500664282172</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="E28" t="n">
-        <v>706.6503629670233</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="F28" t="n">
-        <v>549.3244281799962</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="G28" t="n">
-        <v>381.0703742794417</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="H28" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
         <v>62.11912770411553</v>
@@ -6411,25 +6411,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U28" t="n">
-        <v>760.7500664282172</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V28" t="n">
-        <v>760.7500664282172</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W28" t="n">
-        <v>760.7500664282172</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X28" t="n">
-        <v>760.7500664282172</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y28" t="n">
-        <v>760.7500664282172</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1273.751438283103</v>
+        <v>1089.660981010777</v>
       </c>
       <c r="C29" t="n">
-        <v>880.5759367860337</v>
+        <v>1089.660981010777</v>
       </c>
       <c r="D29" t="n">
-        <v>880.5759367860337</v>
+        <v>704.219852227445</v>
       </c>
       <c r="E29" t="n">
-        <v>477.9924119025782</v>
+        <v>301.6363273439895</v>
       </c>
       <c r="F29" t="n">
-        <v>477.9924119025782</v>
+        <v>301.6363273439895</v>
       </c>
       <c r="G29" t="n">
-        <v>477.9924119025782</v>
+        <v>301.6363273439895</v>
       </c>
       <c r="H29" t="n">
-        <v>153.9093614690689</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J29" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K29" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404059</v>
       </c>
       <c r="L29" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M29" t="n">
         <v>1605.072448403515</v>
@@ -6487,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S29" t="n">
-        <v>2939.442830146827</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T29" t="n">
-        <v>2715.942227706244</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="U29" t="n">
-        <v>2460.189498140842</v>
+        <v>2588.710139485313</v>
       </c>
       <c r="V29" t="n">
-        <v>2460.189498140842</v>
+        <v>2246.603330188832</v>
       </c>
       <c r="W29" t="n">
-        <v>2460.189498140842</v>
+        <v>1875.604295157119</v>
       </c>
       <c r="X29" t="n">
-        <v>2070.736893073899</v>
+        <v>1486.151690090176</v>
       </c>
       <c r="Y29" t="n">
-        <v>1674.2461839945</v>
+        <v>1089.660981010777</v>
       </c>
     </row>
     <row r="30">
@@ -6545,13 +6545,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L30" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M30" t="n">
-        <v>802.5350401618138</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N30" t="n">
         <v>1458.313011372373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>680.2357481768456</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C31" t="n">
-        <v>680.2357481768456</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>680.2357481768456</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>524.6769360360481</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
-        <v>367.3510012490211</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
         <v>62.11912770411553</v>
@@ -6651,22 +6651,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U31" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V31" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W31" t="n">
-        <v>680.2357481768456</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X31" t="n">
-        <v>680.2357481768456</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y31" t="n">
-        <v>680.2357481768456</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1206.412481019843</v>
+        <v>2150.355515407704</v>
       </c>
       <c r="C32" t="n">
-        <v>1206.412481019843</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="D32" t="n">
-        <v>1206.412481019843</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E32" t="n">
-        <v>1206.412481019843</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F32" t="n">
-        <v>789.518042549821</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G32" t="n">
-        <v>376.3552870378241</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H32" t="n">
-        <v>62.11912770411551</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J32" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K32" t="n">
         <v>565.7512566404055</v>
@@ -6730,22 +6730,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T32" t="n">
-        <v>3105.956385205776</v>
+        <v>2947.3409701985</v>
       </c>
       <c r="U32" t="n">
-        <v>3105.956385205776</v>
+        <v>2947.3409701985</v>
       </c>
       <c r="V32" t="n">
-        <v>2763.849575909295</v>
+        <v>2947.3409701985</v>
       </c>
       <c r="W32" t="n">
-        <v>2392.850540877582</v>
+        <v>2947.3409701985</v>
       </c>
       <c r="X32" t="n">
-        <v>2003.397935810639</v>
+        <v>2947.3409701985</v>
       </c>
       <c r="Y32" t="n">
-        <v>1606.90722673124</v>
+        <v>2550.850261119101</v>
       </c>
     </row>
     <row r="33">
@@ -6788,16 +6788,16 @@
         <v>545.6852136024288</v>
       </c>
       <c r="M33" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2204.509362664224</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="C34" t="n">
-        <v>2204.509362664224</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="D34" t="n">
-        <v>2204.509362664224</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="E34" t="n">
-        <v>2204.509362664224</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="F34" t="n">
-        <v>2204.509362664224</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="G34" t="n">
-        <v>2204.509362664224</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U34" t="n">
-        <v>2820.517593447677</v>
+        <v>766.9074259906197</v>
       </c>
       <c r="V34" t="n">
-        <v>2554.538248268502</v>
+        <v>500.9280808114439</v>
       </c>
       <c r="W34" t="n">
-        <v>2271.207846199679</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="X34" t="n">
-        <v>2204.509362664224</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="Y34" t="n">
-        <v>2204.509362664224</v>
+        <v>217.5976787426216</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2284.59624390331</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C35" t="n">
-        <v>1891.42074240624</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D35" t="n">
-        <v>1505.979613622908</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E35" t="n">
-        <v>1103.396088739452</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F35" t="n">
-        <v>686.5016502694301</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G35" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H35" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K35" t="n">
         <v>565.7512566404055</v>
@@ -6949,13 +6949,13 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6967,22 +6967,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T35" t="n">
-        <v>2882.455782765192</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U35" t="n">
-        <v>2626.703053199791</v>
+        <v>2827.027612153937</v>
       </c>
       <c r="V35" t="n">
-        <v>2284.59624390331</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="W35" t="n">
-        <v>2284.59624390331</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="X35" t="n">
-        <v>2284.59624390331</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y35" t="n">
-        <v>2284.59624390331</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2870.23733337401</v>
+        <v>230.37318160467</v>
       </c>
       <c r="C37" t="n">
-        <v>2870.23733337401</v>
+        <v>230.37318160467</v>
       </c>
       <c r="D37" t="n">
-        <v>2714.604220276525</v>
+        <v>230.37318160467</v>
       </c>
       <c r="E37" t="n">
-        <v>2559.045408135727</v>
+        <v>230.37318160467</v>
       </c>
       <c r="F37" t="n">
-        <v>2401.7194733487</v>
+        <v>230.37318160467</v>
       </c>
       <c r="G37" t="n">
-        <v>2233.465419448146</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H37" t="n">
-        <v>2233.465419448146</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I37" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>2286.344403774165</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>2982.658023059146</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>2870.23733337401</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U37" t="n">
-        <v>2870.23733337401</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V37" t="n">
-        <v>2870.23733337401</v>
+        <v>513.7035836734924</v>
       </c>
       <c r="W37" t="n">
-        <v>2870.23733337401</v>
+        <v>230.37318160467</v>
       </c>
       <c r="X37" t="n">
-        <v>2870.23733337401</v>
+        <v>230.37318160467</v>
       </c>
       <c r="Y37" t="n">
-        <v>2870.23733337401</v>
+        <v>230.37318160467</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2392.850540877582</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C38" t="n">
-        <v>1999.675039380512</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D38" t="n">
-        <v>1614.23391059718</v>
+        <v>1102.908781353157</v>
       </c>
       <c r="E38" t="n">
-        <v>1211.650385713725</v>
+        <v>700.3252564697016</v>
       </c>
       <c r="F38" t="n">
-        <v>794.7559472437023</v>
+        <v>283.4308179996793</v>
       </c>
       <c r="G38" t="n">
-        <v>381.5931917317054</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129441</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
         <v>1605.072448403515</v>
@@ -7192,34 +7192,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V38" t="n">
-        <v>2763.849575909294</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W38" t="n">
-        <v>2392.850540877582</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X38" t="n">
-        <v>2392.850540877582</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y38" t="n">
-        <v>2392.850540877582</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.11912770411552</v>
+        <v>232.3242456381263</v>
       </c>
       <c r="C40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
         <v>143.9541688140574</v>
@@ -7362,22 +7362,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>727.847098413902</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U40" t="n">
-        <v>611.4288749521136</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V40" t="n">
-        <v>345.4495297729379</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W40" t="n">
-        <v>62.11912770411552</v>
+        <v>232.3242456381263</v>
       </c>
       <c r="X40" t="n">
-        <v>62.11912770411552</v>
+        <v>232.3242456381263</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.11912770411552</v>
+        <v>232.3242456381263</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1663.765595782635</v>
+        <v>1168.419567305365</v>
       </c>
       <c r="C41" t="n">
-        <v>1270.590094285566</v>
+        <v>775.2440658082955</v>
       </c>
       <c r="D41" t="n">
-        <v>885.1489655022335</v>
+        <v>775.2440658082955</v>
       </c>
       <c r="E41" t="n">
-        <v>482.565440618778</v>
+        <v>372.6605409248401</v>
       </c>
       <c r="F41" t="n">
-        <v>65.6710021487558</v>
+        <v>372.6605409248401</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7429,34 +7429,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U41" t="n">
-        <v>2850.203655640375</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V41" t="n">
-        <v>2850.203655640375</v>
+        <v>2725.856662194817</v>
       </c>
       <c r="W41" t="n">
-        <v>2850.203655640375</v>
+        <v>2354.857627163104</v>
       </c>
       <c r="X41" t="n">
-        <v>2460.751050573431</v>
+        <v>1965.405022096161</v>
       </c>
       <c r="Y41" t="n">
-        <v>2064.260341494032</v>
+        <v>1568.914313016762</v>
       </c>
     </row>
     <row r="42">
@@ -7487,19 +7487,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
@@ -7596,25 +7596,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T43" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U43" t="n">
-        <v>747.3868137916095</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V43" t="n">
-        <v>481.4074686124337</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W43" t="n">
-        <v>481.4074686124337</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X43" t="n">
-        <v>247.3271463954168</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.3271463954168</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1937.971895383267</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C44" t="n">
-        <v>1544.796393886198</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D44" t="n">
-        <v>1159.355265102866</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E44" t="n">
-        <v>756.77174021941</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F44" t="n">
-        <v>339.8773017493878</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7657,7 +7657,7 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
         <v>2132.883732040977</v>
@@ -7666,7 +7666,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
         <v>3105.956385205776</v>
@@ -7684,16 +7684,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V44" t="n">
-        <v>3105.956385205776</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="W44" t="n">
-        <v>2734.957350174063</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="X44" t="n">
-        <v>2734.957350174063</v>
+        <v>2473.871222561389</v>
       </c>
       <c r="Y44" t="n">
-        <v>2338.466641094664</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
         <v>143.9541688140574</v>
@@ -7833,25 +7833,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T46" t="n">
-        <v>727.847098413902</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U46" t="n">
-        <v>562.1787951003082</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V46" t="n">
-        <v>296.1994499211324</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W46" t="n">
-        <v>296.1994499211324</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
   </sheetData>
@@ -8066,10 +8066,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>108.8653421701425</v>
+        <v>742.9781195708306</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8233,10 +8233,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,19 +8294,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>400.7288157213065</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>747.7741039759435</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8315,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8531,7 +8531,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8540,7 +8540,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N9" t="n">
         <v>85.37211285416666</v>
@@ -8549,10 +8549,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>461.5665676450056</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8710,7 +8710,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8771,25 +8771,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>647.2923877624991</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9008,25 +9008,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>723.5863546247126</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9251,16 +9251,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O18" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9491,16 +9491,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9962,10 +9962,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N27" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10193,16 +10193,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>351.8313913012159</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10436,10 +10436,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N33" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10448,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,19 +11138,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>306.543171528089</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11375,22 +11375,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -22549,22 +22549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>297.3827829849214</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.6385885515314</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22704,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>89.75118923825912</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -22752,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>128.7798134659676</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.1704412156288</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22941,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>114.8840094899624</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22962,10 +22962,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22998,7 +22998,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -23010,7 +23010,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23026,22 +23026,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>314.9022469666454</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>285.6277348798898</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,16 +23074,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23184,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23235,16 +23235,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>30.63740893521796</v>
+        <v>64.23633555897396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>118.5727835600602</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.74197678056782</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
         <v>164.8484195083599</v>
@@ -23551,13 +23551,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>177.9708128804885</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>130.3648681862316</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>211.9008636744366</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23907,7 +23907,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H19" t="n">
-        <v>153.923765528121</v>
+        <v>87.89226682802024</v>
       </c>
       <c r="I19" t="n">
         <v>131.7634811092929</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>200.7879229792761</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>56.63048077364817</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -23974,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>209.9257758893895</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>23.92805476118349</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>138.1347697287176</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>87.89226682802024</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24183,16 +24183,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>67.67651041947136</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>91.57507242061067</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24265,10 +24265,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>104.0045570257511</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>155.6479582937658</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>370.826484987525</v>
       </c>
     </row>
     <row r="27">
@@ -24609,22 +24609,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>100.4445175928075</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>87.89226682802024</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>83.72019228569897</v>
       </c>
       <c r="I29" t="n">
-        <v>46.081414311156</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,10 +24739,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>18.31572408021341</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
         <v>131.7634811092929</v>
@@ -24891,16 +24891,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24919,13 +24919,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>9.748422188802749</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>64.23633555897408</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>131.7634811092929</v>
@@ -25131,7 +25131,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>87.89226682802033</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>165.7080202947457</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>111.7346505463897</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>198.3213133646039</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,13 +25317,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>103.0969848932095</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -25365,16 +25365,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>100.5400146614483</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>189.9325545642687</v>
       </c>
       <c r="H38" t="n">
-        <v>4.562896541860255</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>164.8484195083599</v>
@@ -25450,16 +25450,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -25602,16 +25602,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>102.47156805457</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25633,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>405.514772256683</v>
+        <v>101.5951288683596</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
@@ -25684,13 +25684,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -25836,22 +25836,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>68.56686075100021</v>
+        <v>134.7564242791756</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>134.0505356520572</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25924,16 +25924,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>98.47950920184655</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -26073,22 +26073,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>118.5727835600602</v>
+        <v>134.7564242791756</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>661921.9605185034</v>
+        <v>661921.9605185036</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>661921.9605185037</v>
+        <v>661921.9605185036</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>661921.9605185034</v>
+        <v>661921.9605185036</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>661921.9605185034</v>
+        <v>661921.9605185036</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>661921.9605185036</v>
+        <v>661921.9605185034</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>661921.9605185034</v>
+        <v>661921.9605185036</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>661921.9605185034</v>
+        <v>661921.9605185037</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>661921.9605185036</v>
+        <v>661921.9605185034</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>661921.9605185037</v>
+        <v>661921.9605185036</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>661921.9605185034</v>
+        <v>661921.9605185036</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>254445.3498136761</v>
       </c>
       <c r="E2" t="n">
-        <v>254445.3498136762</v>
+        <v>254445.349813676</v>
       </c>
       <c r="F2" t="n">
         <v>254445.3498136761</v>
       </c>
       <c r="G2" t="n">
+        <v>254445.3498136761</v>
+      </c>
+      <c r="H2" t="n">
         <v>254445.349813676</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>254445.349813676</v>
+      </c>
+      <c r="J2" t="n">
         <v>254445.3498136761</v>
       </c>
-      <c r="I2" t="n">
-        <v>254445.3498136762</v>
-      </c>
-      <c r="J2" t="n">
-        <v>254445.349813676</v>
-      </c>
       <c r="K2" t="n">
-        <v>254445.349813676</v>
+        <v>254445.3498136761</v>
       </c>
       <c r="L2" t="n">
-        <v>254445.3498136762</v>
+        <v>254445.3498136761</v>
       </c>
       <c r="M2" t="n">
         <v>254445.3498136761</v>
       </c>
       <c r="N2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.349813676</v>
       </c>
       <c r="O2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.349813676</v>
       </c>
       <c r="P2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.349813676</v>
       </c>
     </row>
     <row r="3">
@@ -26502,16 +26502,16 @@
         <v>47210.5370551278</v>
       </c>
       <c r="M5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="N5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="O5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-112969.5492530503</v>
+        <v>-113500.6442849155</v>
       </c>
       <c r="C6" t="n">
-        <v>147249.8061667786</v>
+        <v>146718.7111349134</v>
       </c>
       <c r="D6" t="n">
-        <v>147249.8061667786</v>
+        <v>146718.7111349133</v>
       </c>
       <c r="E6" t="n">
-        <v>180877.4061667786</v>
+        <v>180346.3111349133</v>
       </c>
       <c r="F6" t="n">
-        <v>180877.4061667786</v>
+        <v>180346.3111349134</v>
       </c>
       <c r="G6" t="n">
-        <v>180877.4061667785</v>
+        <v>180346.3111349134</v>
       </c>
       <c r="H6" t="n">
-        <v>180877.4061667785</v>
+        <v>180346.3111349132</v>
       </c>
       <c r="I6" t="n">
-        <v>180877.4061667786</v>
+        <v>180346.3111349133</v>
       </c>
       <c r="J6" t="n">
-        <v>-22286.30694591655</v>
+        <v>-22817.40197778162</v>
       </c>
       <c r="K6" t="n">
-        <v>180877.4061667785</v>
+        <v>180346.3111349134</v>
       </c>
       <c r="L6" t="n">
-        <v>180877.4061667786</v>
+        <v>180346.3111349134</v>
       </c>
       <c r="M6" t="n">
-        <v>180877.4061667786</v>
+        <v>180346.3111349134</v>
       </c>
       <c r="N6" t="n">
-        <v>180877.4061667786</v>
+        <v>180346.3111349133</v>
       </c>
       <c r="O6" t="n">
-        <v>180877.4061667786</v>
+        <v>180346.3111349133</v>
       </c>
       <c r="P6" t="n">
-        <v>180877.4061667785</v>
+        <v>180346.3111349133</v>
       </c>
     </row>
   </sheetData>
@@ -26822,16 +26822,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="M4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -34786,10 +34786,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>23.49322931597588</v>
+        <v>657.606006716664</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34953,10 +34953,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>310.6684688643883</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>662.4019911217769</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35035,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35260,7 +35260,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>374.483202825691</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>554.9052657131872</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>631.1992325754007</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35971,16 +35971,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O18" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,10 +36682,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N27" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>259.444269251904</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37156,10 +37156,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N33" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37168,7 +37168,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>35.05004611020361</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>216.4828246711708</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
